--- a/cachefaults strassen.xlsx
+++ b/cachefaults strassen.xlsx
@@ -370,12 +370,13 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -412,6 +413,13 @@
         <f>B1*(A4+(A4*A4)/D1+POWER(A4,LOG(7,2))/(D1*POWER(F1,LOG(7,2)/2-1)))</f>
         <v>41129.388377398951</v>
       </c>
+      <c r="C4">
+        <v>14241</v>
+      </c>
+      <c r="D4">
+        <f>C4/(POWER(A4, LOG(2,7))/($D$1*POWER($F$1, 0.4037)))</f>
+        <v>1332772.9931022662</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -421,6 +429,13 @@
         <f>B1*(A5+(A5*A5)/D1+POWER(A5,LOG(7,2))/(D1*POWER(F1,LOG(7,2)/2-1)))</f>
         <v>213281.71864179263</v>
       </c>
+      <c r="C5">
+        <v>56684</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D9" si="0">C5/(POWER(A5, LOG(2,7))/($D$1*POWER($F$1, 0.4037)))</f>
+        <v>4144261.3797527552</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -430,6 +445,13 @@
         <f>B1*(A6+(A6*A6)/D1+POWER(A6,LOG(7,2))/(D1*POWER(F1,LOG(7,2)/2-1)))</f>
         <v>1208556.0304925488</v>
       </c>
+      <c r="C6">
+        <v>374156</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>21370285.06160526</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -439,6 +461,13 @@
         <f>B1*(A7+(A7*A7)/D1+POWER(A7,LOG(7,2))/(D1*POWER(F1,LOG(7,2)/2-1)))</f>
         <v>7350388.2134478521</v>
       </c>
+      <c r="C7">
+        <v>4468616</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>199389181.01759061</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -448,6 +477,13 @@
         <f>B1*(A8+(A8*A8)/D1+POWER(A8,LOG(7,2))/(D1*POWER(F1,LOG(7,2)/2-1)))</f>
         <v>47071021.494134903</v>
       </c>
+      <c r="C8">
+        <v>40220748</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1402005277.4527249</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -456,6 +492,13 @@
       <c r="B9" s="1">
         <f>B1*(A9+(A9*A9)/D1+POWER(A9,LOG(7,2))/(D1*POWER(F1,LOG(7,2)/2-1)))</f>
         <v>312083006.45894378</v>
+      </c>
+      <c r="C9">
+        <v>313235178</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>8529842007.329133</v>
       </c>
     </row>
   </sheetData>
